--- a/riskbenefit.xlsx
+++ b/riskbenefit.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6160" yWindow="220" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,6 +127,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -222,10 +223,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -242,7 +243,7 @@
             <c:v>Calibration Technologies</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47625">
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -266,19 +267,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000" vert="horz"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -291,8 +279,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0213822205151185"/>
-                  <c:y val="-0.0695966029723991"/>
+                  <c:x val="-0.0146072594584214"/>
+                  <c:y val="-0.0823354564755838"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -306,19 +294,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000" vert="horz"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -346,19 +321,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000" vert="horz"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -386,19 +348,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000" vert="horz"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -412,7 +361,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100" b="0" i="0">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -476,7 +427,7 @@
             <c:v>Familiar Technologies</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47625">
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -500,19 +451,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -540,19 +478,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -580,19 +505,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -615,19 +527,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -641,7 +540,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1200">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -705,7 +606,7 @@
             <c:v>Wearable Technologies</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47625">
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -729,19 +630,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -769,19 +657,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -809,19 +684,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -849,19 +711,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -889,19 +738,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -929,19 +765,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -977,19 +800,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1016,38 +826,19 @@
               </c:layout>
               <c:tx>
                 <c:rich>
-                  <a:bodyPr rot="-2700000" lIns="0">
-                    <a:noAutofit/>
-                  </a:bodyPr>
+                  <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                        <a:latin typeface="Calibri"/>
-                      </a:defRPr>
-                    </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" strike="noStrike">
-                        <a:latin typeface="Calibri"/>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                        <a:latin typeface="+mj-lt"/>
                       </a:rPr>
-                      <a:t>Disc.</a:t>
+                      <a:t>Disc. Microphone</a:t>
                     </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" strike="noStrike" baseline="0">
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:t> </a:t>
-                    </a:r>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1200" b="0" i="0" strike="noStrike">
-                        <a:latin typeface="Calibri"/>
-                      </a:rPr>
-                      <a:t>Microphone</a:t>
-                    </a:r>
+                    <a:endParaRPr lang="en-US"/>
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:spPr/>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1075,19 +866,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1115,19 +893,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="-2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1141,7 +906,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100" b="0" i="0">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1265,7 +1032,7 @@
             <c:v>Specific Technologies</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="47625">
+            <a:ln w="28575">
               <a:noFill/>
             </a:ln>
           </c:spPr>
@@ -1289,19 +1056,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1329,19 +1083,6 @@
                   </c:strCache>
                 </c:strRef>
               </c:tx>
-              <c:spPr/>
-              <c:txPr>
-                <a:bodyPr rot="2700000"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" strike="noStrike">
-                      <a:latin typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
               <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -1355,7 +1096,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1100" b="0" i="0">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1408,13 +1151,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128435608"/>
-        <c:axId val="2123152120"/>
+        <c:axId val="588486440"/>
+        <c:axId val="677462872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128435608"/>
+        <c:axId val="588486440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="90.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1426,10 +1170,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2400" b="0" i="0">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:rPr>
                   <a:t>Benefit</a:t>
                 </a:r>
               </a:p>
@@ -1442,14 +1190,29 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123152120"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0">
+                <a:latin typeface="+mj-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="677462872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2123152120"/>
+        <c:axId val="677462872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="62.0"/>
+          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1461,10 +1224,14 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="2400" b="0" i="0" strike="noStrike">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0" strike="noStrike">
+                    <a:latin typeface="+mj-lt"/>
+                  </a:rPr>
                   <a:t>Risk</a:t>
                 </a:r>
               </a:p>
@@ -1477,9 +1244,22 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128435608"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="+mj-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588486440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.0"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1488,10 +1268,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.632812346627403"/>
-          <c:y val="0.0517528461808516"/>
-          <c:w val="0.221219938971043"/>
-          <c:h val="0.211585335272581"/>
+          <c:x val="0.547446492968867"/>
+          <c:y val="0.0347677081766053"/>
+          <c:w val="0.432602052792181"/>
+          <c:h val="0.341097012554959"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -1499,18 +1279,15 @@
         <a:solidFill>
           <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
       </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400"/>
+            <a:defRPr sz="2400">
+              <a:latin typeface="+mj-lt"/>
+            </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1889,7 +1666,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/riskbenefit.xlsx
+++ b/riskbenefit.xlsx
@@ -252,8 +252,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.018868617032627"/>
-                  <c:y val="-0.0614118060083255"/>
+                  <c:x val="-0.0513890489298593"/>
+                  <c:y val="-0.0019638229934634"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -279,8 +279,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.0146072594584214"/>
-                  <c:y val="-0.0823354564755838"/>
+                  <c:x val="-0.0240925676973305"/>
+                  <c:y val="-0.0695966029723991"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1151,11 +1151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="588486440"/>
-        <c:axId val="677462872"/>
+        <c:axId val="736057048"/>
+        <c:axId val="735665432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="588486440"/>
+        <c:axId val="736057048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -1187,36 +1187,55 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" baseline="0">
+              <a:defRPr sz="1400" baseline="0">
                 <a:latin typeface="+mj-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="677462872"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="735665432"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="677462872"/>
+        <c:axId val="735665432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="62.0"/>
+          <c:max val="70.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1241,23 +1260,32 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
         <c:txPr>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200">
+              <a:defRPr sz="1400">
                 <a:latin typeface="+mj-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="588486440"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="736057048"/>
+        <c:crossesAt val="0.0"/>
         <c:crossBetween val="midCat"/>
         <c:minorUnit val="2.0"/>
       </c:valAx>
@@ -1666,7 +1694,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
